--- a/whatever.xlsx
+++ b/whatever.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fg/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C2AA17-3D75-B043-9188-276A073F7587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4640227-C6C7-9444-A90C-1A7C45602535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{269C3F2A-6206-6244-A66A-AAAD46110256}"/>
   </bookViews>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -387,17 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89DFCCF-8C9F-8B40-924E-26C7EF4DE0FB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
